--- a/staffs.xlsx
+++ b/staffs.xlsx
@@ -521,7 +521,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
